--- a/SchubertPeter_test_plan.xlsx
+++ b/SchubertPeter_test_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterschubert/Peter_Documents/University of Michigan-Dearborn/CIS 435/proj1-cis435-fa20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterschubert/Peter_Documents/University of Michigan-Dearborn/CIS 435/schubertPeter_cis435_p1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9640F77E-5B16-904C-90C6-FBF297C1E0BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38134A5-5BAE-5B40-A7FA-EF00BD88F4CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="October 3, 2020" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="25">
-  <si>
-    <t>Test case plan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>#</t>
   </si>
@@ -106,6 +103,24 @@
   </si>
   <si>
     <t>When the user hovers over the links, the color of the links changes from orange to green</t>
+  </si>
+  <si>
+    <t>Test case plan for Part 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body of the Page is centered </t>
+  </si>
+  <si>
+    <t>When the page is loaded initially, the page is centered, relative to the browser size  with the body in the middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 degree gradient header and footer is applied </t>
+  </si>
+  <si>
+    <t>Styles applied To header and footer</t>
+  </si>
+  <si>
+    <t>Header: 45 degree gradient of white, orange, and black (left to right). Footer: 45 degree gradient of black, orange, and white (left to right appears</t>
   </si>
 </sst>
 </file>
@@ -639,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -658,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="52.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -684,31 +699,31 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="32" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
@@ -716,25 +731,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="48">
@@ -742,25 +757,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
@@ -768,52 +783,105 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="57" customHeight="1">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
@@ -845,7 +913,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -863,7 +931,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -889,31 +957,31 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32">
@@ -921,25 +989,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="48">
@@ -947,25 +1015,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
@@ -973,52 +1041,105 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="54" customHeight="1">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
@@ -1042,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E394DF-ACCB-354A-BC4C-31AA405C67C9}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1061,7 +1182,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1087,31 +1208,31 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32">
@@ -1119,25 +1240,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="48">
@@ -1145,25 +1266,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
@@ -1171,52 +1292,105 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="35" customHeight="1"/>
